--- a/medicine/Enfance/Marie-José_Sacré/Marie-José_Sacré.xlsx
+++ b/medicine/Enfance/Marie-José_Sacré/Marie-José_Sacré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie-Jos%C3%A9_Sacr%C3%A9</t>
+          <t>Marie-José_Sacré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-José Sacré, née le 4 août 1946 à Battice (province de Liège), est une autrice, peintre, sculptrice et illustratrice belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie-Jos%C3%A9_Sacr%C3%A9</t>
+          <t>Marie-José_Sacré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-José Sacré naît le 4 août 1946 à Battice[1],[2]. Elle se forme à l'Académie royale des beaux-arts de Liège[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-José Sacré naît le 4 août 1946 à Battice,. Elle se forme à l'Académie royale des beaux-arts de Liège.
 Elle écrit et illustre son premier livre jeunesse au Japon, au milieu des années 1970.
 Elle collabore également en tant qu'illustratrice auprès de nombreux auteurs jeunesse. Elle en illustre plusieurs écrits par Catherine Metzmoyer, par Guy Counhaye ou par Pierre Coran.
-Elle est lauréate du Prix Québec-Wallonie-Bruxelles de littérature de jeunesse[3] en 1987.
-En 1986, elle illustre le premier livre jeunesse écrit par Carl Norac — fils de Pierre Coran pour qui elle a illustré une dizaine d'albums — Bon appétit Monsieur Logre, qui sera distingué l'année suivante d'une "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne[4]. Elle obtiendra trois autres fois cette "Mention" Prix critique en herbe, aux éditions de 1990[5], 1991[6] et 1992[7] de la Foire internationale du livre jeunesse de Bologne.
-Elle a publié plus d'une centaine d'ouvrages[8], chez divers éditeurs, Fernand Nathan, Cerf, Bilboquet ou Casterman. Ils sont traduits dans une vingtaine de langues et diffusés internationalement[8]. Ses illustrations sont notamment très « appréciées au Japon »[9].
-Elle dessine également pour plusieurs revues[8] : Dopido, Dorémi, Bonjour, Picoti, Toupie, Toboggan, J'apprends à lire et Bambi.
+Elle est lauréate du Prix Québec-Wallonie-Bruxelles de littérature de jeunesse en 1987.
+En 1986, elle illustre le premier livre jeunesse écrit par Carl Norac — fils de Pierre Coran pour qui elle a illustré une dizaine d'albums — Bon appétit Monsieur Logre, qui sera distingué l'année suivante d'une "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne. Elle obtiendra trois autres fois cette "Mention" Prix critique en herbe, aux éditions de 1990, 1991 et 1992 de la Foire internationale du livre jeunesse de Bologne.
+Elle a publié plus d'une centaine d'ouvrages, chez divers éditeurs, Fernand Nathan, Cerf, Bilboquet ou Casterman. Ils sont traduits dans une vingtaine de langues et diffusés internationalement. Ses illustrations sont notamment très « appréciées au Japon ».
+Elle dessine également pour plusieurs revues : Dopido, Dorémi, Bonjour, Picoti, Toupie, Toboggan, J'apprends à lire et Bambi.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie-Jos%C3%A9_Sacr%C3%A9</t>
+          <t>Marie-José_Sacré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,22 +562,94 @@
           <t>Quelques ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-José Sacré a publié plus d'une centaine d'ouvrages[8]. 
-Autrice et illustratrice
-La Tribu des Malotrus, Duculot, 1981
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-José Sacré a publié plus d'une centaine d'ouvrages. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-José_Sacré</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Jos%C3%A9_Sacr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autrice et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Tribu des Malotrus, Duculot, 1981
 Le Pays du roi cuisinier, Casterman, coll. « Le Croque-livres », 1981  (ISBN 9782203138124)
 Le Pissenlit, Cerf, 1981
 Le Chat, Cerf-Boehem press, 1982
 Le Roi cuisine, Épigones, coll. « Histoires pour toi », 1991  (ISBN 2736645111)
-La Maison des souris : avec figurines : un livre-carrousel animé, Lipokili, 2003
-Illustratrice
+La Maison des souris : avec figurines : un livre-carrousel animé, Lipokili, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie-José_Sacré</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Jos%C3%A9_Sacr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Pays du roi cuisinier, texte de Dominique Barrios-Delgado, Cerf, 1979
 Marie et Nez-Carotte, le bonhomme de neige, Fernand Nathan, 1982
 13 Petites Histoires à lire pour bien dormir, Casterman, 1988
-La Fleur jaune, texte de Renate Schupp, éd. Épigones, 1988 "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne[5] 1990.
-Le Petit Homme et les géants, écrit par Klaus Kordon, éd. Épigones, 1991 "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne[7] 1992.
+La Fleur jaune, texte de Renate Schupp, éd. Épigones, 1988 "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne 1990.
+Le Petit Homme et les géants, écrit par Klaus Kordon, éd. Épigones, 1991 "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne 1992.
 L’Œuf de crocodile, texte de Christian Merveille, Casterman, 1991
 Pirouette et Réséda à Chaos-la-Folie, texte de Colette Demez, Casterman, 1993
 Les Chansons françaises, Hemma, 2001
@@ -592,7 +678,7 @@
 Lupin le lapin
 Ma famille
 Avec Carl Norac au texte
-Bon Appétit Monsieur Logre, texte de Carl Norac, Liège, Dessain, 1986 "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne[4] 1987.
+Bon Appétit Monsieur Logre, texte de Carl Norac, Liège, Dessain, 1986 "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne 1987.
 Le Fantôme à tics, texte de Carl Norac, ill. par  Marie-José Sacré, Dessain, Liège, 1986
 Baloum le génie, texte de Carl Norac, ill. par  Marie-José Sacré, Dessain, Liège, 1987
 Harpagonne la sorcière, texte de Carl Norac, ill. par  Marie-José Sacré, Dessain, Liège, 1987
@@ -604,7 +690,7 @@
 Bonhomme de neige
 Le Nénuphar
 Avec Gerda Wagener au texte
-Tout p'tit lièvre et ses amis, éd. Épigones, 1990 "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne[6] 1991.
+Tout p'tit lièvre et ses amis, éd. Épigones, 1990 "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne 1991.
 Un petit frère pour Joséphine, éd. Épigones, 1992
 Tout p'tit lièvre et le renard, éd. Épigones, 1994
 Petit lièvre fait de la musique, éd. Bilboquet, 1998
@@ -612,43 +698,45 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marie-Jos%C3%A9_Sacr%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie-José_Sacré</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie-Jos%C3%A9_Sacr%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1982 :  The Owl Price for Popularity ;
 1987 :
- prix Québec-Wallonie-Bruxelles de littérature de jeunesse[3] ;
- "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne[4] pour Bon Appétit Monsieur Logre, texte de Carl Norac ;
+ prix Québec-Wallonie-Bruxelles de littérature de jeunesse ;
+ "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne pour Bon Appétit Monsieur Logre, texte de Carl Norac ;
 1990 :
- "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne[5] pour La Fleur jaune, texte de Renate Schupp ;
+ "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne pour La Fleur jaune, texte de Renate Schupp ;
  prix de la découverte-Grelot, du Festival de BD à Sierre ;
-1991 :  "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne[6] pour Tout P'tit Lièvre et ses amis, écrit par Gerda Wagener ;
+1991 :  "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne pour Tout P'tit Lièvre et ses amis, écrit par Gerda Wagener ;
 1992 :
  Chicago Book Clinic Award ;
- "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne[7] pour Le Petit Homme et les géants, écrit par Klaus Kordon.</t>
+ "Mention" Prix critique en herbe de la Foire internationale du livre jeunesse de Bologne pour Le Petit Homme et les géants, écrit par Klaus Kordon.</t>
         </is>
       </c>
     </row>
